--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed1/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>11.77159999999999</v>
+        <v>12.63059999999999</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.553899999999987</v>
+        <v>-7.550199999999992</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.04990000000001</v>
+        <v>-21.13820000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.20559999999999</v>
+        <v>-11.34609999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.908800000000002</v>
+        <v>-6.604299999999995</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,24 +519,24 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.8243</v>
+        <v>-14.90540000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.85069999999999</v>
+        <v>12.97189999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.22879999999999</v>
+        <v>-20.26969999999999</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.60749999999999</v>
+        <v>-11.56409999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.31330000000002</v>
+        <v>-21.46050000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.5189</v>
+        <v>-20.48499999999999</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.0127</v>
+        <v>-11.8857</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.571899999999999</v>
+        <v>-7.147699999999998</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.308200000000001</v>
+        <v>-8.127299999999995</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.957699999999997</v>
+        <v>-6.806199999999998</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.35749999999999</v>
+        <v>-20.46599999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0184</v>
+        <v>-12.0799</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.205299999999994</v>
+        <v>-8.25259999999999</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.96430000000002</v>
+        <v>-22.80040000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -780,12 +780,12 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.09649999999999</v>
+        <v>13.26739999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.5821</v>
+        <v>-20.49389999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.21</v>
+        <v>-11.33699999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.463799999999997</v>
+        <v>-8.261799999999996</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
